--- a/unity_mp4_list/flutter_learn_mp4_list_2023.xlsx
+++ b/unity_mp4_list/flutter_learn_mp4_list_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="22140" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="flutter list" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>https://youtu.be/ksTdIzYSjsY</t>
+  </si>
+  <si>
+    <t>https://app.flutterflow.io/dashboard</t>
+  </si>
+  <si>
+    <t>在线可视化工具</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +716,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -1242,9 +1251,18 @@
     <row r="17" ht="25" customHeight="1"/>
     <row r="18" ht="25" customHeight="1"/>
     <row r="19" ht="25" customHeight="1"/>
+    <row r="21" spans="3:4">
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://youtu.be/ksTdIzYSjsY"/>
+    <hyperlink ref="C21" r:id="rId2" display="https://app.flutterflow.io/dashboard"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
